--- a/outputs-HGR-r202-archive/g__CAG-882.xlsx
+++ b/outputs-HGR-r202-archive/g__CAG-882.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,62 +607,30 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT84132.fa</t>
+          <t>even_MAG-GUT84562.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2335163692976653</v>
+        <v>0.5158818477991636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1077177484555991</v>
+        <v>0.192416112390563</v>
       </c>
       <c r="D6" t="n">
-        <v>0.107826766211564</v>
+        <v>0.06841551698948435</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5509391160351716</v>
+        <v>0.2232865228207891</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5509391160351716</v>
+        <v>0.5158818477991636</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>s__CAG-882 sp900545455</t>
+          <t>s__CAG-882 sp000435595</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>s__CAG-882 sp900545455(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT84562.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5158818477991636</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.192416112390563</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.06841551698948435</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2232865228207891</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.5158818477991636</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>s__CAG-882 sp000435595</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>s__CAG-882 sp000435595</t>
         </is>
